--- a/include/SpeakerDB.xlsx
+++ b/include/SpeakerDB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmrplens/Google Drive/Universidad/Master Acustica/Primer cuatrimestre/Sistemas Electroacusticos/Trabajo Matlab/Aplicacion Selecion Qts/include/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmrplens/Google Drive/Universidad/Master Acustica/Primer cuatrimestre/Sistemas Electroacusticos/Trabajo Matlab/BassReflexTuning SOURCE/include/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58865408-4BAA-BE47-BB0C-4B08A2CC748E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DA68C5-A1FC-4244-89CA-D4802A3F643E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="24620" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1448,7 +1448,7 @@
     <t>AUTO-CALCULATED IN MATLAB</t>
   </si>
   <si>
-    <t>NominalPower</t>
+    <t>Pe</t>
   </si>
 </sst>
 </file>
@@ -2113,7 +2113,7 @@
   <dimension ref="A1:Q935"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -24454,7 +24454,7 @@
       <c r="J935" s="7"/>
     </row>
   </sheetData>
-  <sortState ref="A4:J4">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J4">
     <sortCondition ref="A4"/>
   </sortState>
   <customSheetViews>
